--- a/tests/fixtures/verification/cases/semantic/00005/00005-wc_lang.xlsx
+++ b/tests/fixtures/verification/cases/semantic/00005/00005-wc_lang.xlsx
@@ -2952,7 +2952,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observable' name='Observables' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3182,7 +3182,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Function' name='Functions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3420,7 +3420,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reaction' name='Reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -3792,7 +3792,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='RateLaw' name='Rate laws' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4053,7 +4053,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjective' name='dFBA objectives' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4332,7 +4332,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjReaction' name='dFBA objective reactions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4576,7 +4576,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DfbaObjSpecies' name='dFBA objective species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -4844,7 +4844,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Parameter' name='Parameters' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5161,7 +5161,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='StopCondition' name='Stop conditions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5387,7 +5387,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Observation' name='Observations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -5925,7 +5925,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Model' name='Models' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6237,7 +6237,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='ObservationSet' name='Observation sets' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6410,7 +6410,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Conclusion' name='Conclusions' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -6754,7 +6754,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Reference' name='References' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7159,7 +7159,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Author' name='Authors' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7453,7 +7453,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Change' name='Changes' date='2019-12-05 16:22:40' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -7832,7 +7832,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Taxon' name='Taxons' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8011,7 +8011,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
+          <t>!!ObjTables type='Data' class='Environment' name='Environments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='column'</t>
         </is>
       </c>
       <c r="B1" s="4" t="n"/>
@@ -8198,7 +8198,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Submodel' name='Submodels' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8417,7 +8417,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Compartment' name='Compartments' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -8927,7 +8927,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='SpeciesType' name='Species types' date='2019-12-05 16:22:38' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9305,7 +9305,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='Species' name='Species' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
@@ -9579,7 +9579,7 @@
     <row r="1" ht="15" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>!!ObjTables type='Data' id='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
+          <t>!!ObjTables type='Data' class='DistributionInitConcentration' name='Init species concentrations' date='2019-12-05 16:22:39' objTablesVersion='0.0.8' schema='wc_lang' tableFormat='row'</t>
         </is>
       </c>
       <c r="B1" s="1" t="n"/>
